--- a/Transformdas_e.xlsx
+++ b/Transformdas_e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia Maxima alcanzada</t>
+          <t>Frecuencia del primer armonico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia del segundo armonico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia tercer armonico</t>
         </is>
       </c>
     </row>
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>317.4881984850144</v>
+        <v>318.3664507629819</v>
+      </c>
+      <c r="D2" t="n">
+        <v>159.4027884509824</v>
+      </c>
+      <c r="E2" t="n">
+        <v>476.451860797014</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>375.5353777625496</v>
+        <v>375.5353777625487</v>
+      </c>
+      <c r="D3" t="n">
+        <v>187.7676888812739</v>
+      </c>
+      <c r="E3" t="n">
+        <v>564.67363371595</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>425.2604720391237</v>
+        <v>425.2604720391246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>284.0739953221346</v>
+      </c>
+      <c r="E4" t="n">
+        <v>142.0369976610673</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>332.0070324789485</v>
+        <v>332.7472934209309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>166.1885814749703</v>
+      </c>
+      <c r="E5" t="n">
+        <v>497.0852225409462</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>328.2859710986659</v>
+        <v>328.8391066860258</v>
+      </c>
+      <c r="D6" t="n">
+        <v>492.0141049574781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>164.0047016524923</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375.6754438631101</v>
+        <v>376.3616090573805</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187.6661806329876</v>
+      </c>
+      <c r="E7" t="n">
+        <v>554.7645595677159</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>368.6371884251739</v>
+        <v>369.4012033234649</v>
+      </c>
+      <c r="D8" t="n">
+        <v>185.2736128354509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>556.5848534046418</v>
       </c>
     </row>
     <row r="9">
@@ -548,6 +600,12 @@
       <c r="C9" t="n">
         <v>301.875</v>
       </c>
+      <c r="D9" t="n">
+        <v>451.875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>151.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -559,7 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>411.3360323886641</v>
+        <v>411.3360323886636</v>
+      </c>
+      <c r="D10" t="n">
+        <v>205.3441295546563</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2267.206477732793</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>284.174915424132</v>
+        <v>285.1772960781864</v>
+      </c>
+      <c r="D11" t="n">
+        <v>569.8534018293444</v>
+      </c>
+      <c r="E11" t="n">
+        <v>133.8178173161255</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>389.6645803241859</v>
+        <v>390.948483389504</v>
+      </c>
+      <c r="D12" t="n">
+        <v>195.7952174610809</v>
+      </c>
+      <c r="E12" t="n">
+        <v>577.1144278606962</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>504.6771617613513</v>
+        <v>504.6771617613504</v>
+      </c>
+      <c r="D13" t="n">
+        <v>336.7556468172484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>172.4845995893229</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>187.2981700753498</v>
+        <v>187.2981700753503</v>
+      </c>
+      <c r="D14" t="n">
+        <v>374.5963401506997</v>
+      </c>
+      <c r="E14" t="n">
+        <v>561.176892716182</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>316.6109253065774</v>
+        <v>317.4217087260567</v>
+      </c>
+      <c r="D15" t="n">
+        <v>159.3189419276378</v>
+      </c>
+      <c r="E15" t="n">
+        <v>477.1460423634339</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>368.1774141457636</v>
+        <v>367.3161804284637</v>
+      </c>
+      <c r="D16" t="n">
+        <v>184.7346323608572</v>
+      </c>
+      <c r="E16" t="n">
+        <v>550.758962213371</v>
       </c>
     </row>
     <row r="17">
@@ -652,6 +752,12 @@
       <c r="C17" t="n">
         <v>370.5844572896594</v>
       </c>
+      <c r="D17" t="n">
+        <v>184.9710982658962</v>
+      </c>
+      <c r="E17" t="n">
+        <v>555.5555555555557</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -665,6 +771,12 @@
       <c r="C18" t="n">
         <v>365.5549274543055</v>
       </c>
+      <c r="D18" t="n">
+        <v>183.9080459770121</v>
+      </c>
+      <c r="E18" t="n">
+        <v>540.4183154324483</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -676,7 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>321.2598425196857</v>
+        <v>321.2598425196848</v>
+      </c>
+      <c r="D19" t="n">
+        <v>481.8897637795276</v>
+      </c>
+      <c r="E19" t="n">
+        <v>160.6299212598424</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>352.862403749582</v>
+        <v>352.8624037495815</v>
+      </c>
+      <c r="D20" t="n">
+        <v>176.7659859390692</v>
+      </c>
+      <c r="E20" t="n">
+        <v>530.297957817208</v>
       </c>
     </row>
     <row r="21">
@@ -704,6 +828,12 @@
       <c r="C21" t="n">
         <v>311.4511352418558</v>
       </c>
+      <c r="D21" t="n">
+        <v>465.942744323791</v>
+      </c>
+      <c r="E21" t="n">
+        <v>163.376110562685</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -715,7 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>498.519024834814</v>
+        <v>498.5190248348144</v>
+      </c>
+      <c r="D22" t="n">
+        <v>169.5146958304849</v>
+      </c>
+      <c r="E22" t="n">
+        <v>332.6498063340168</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>433.4060100483462</v>
+        <v>434.164375770215</v>
+      </c>
+      <c r="D23" t="n">
+        <v>652.5737036685941</v>
+      </c>
+      <c r="E23" t="n">
+        <v>216.513413593706</v>
       </c>
     </row>
     <row r="24">
@@ -743,6 +885,12 @@
       <c r="C24" t="n">
         <v>510.1243339253997</v>
       </c>
+      <c r="D24" t="n">
+        <v>247.2468916518646</v>
+      </c>
+      <c r="E24" t="n">
+        <v>625.9325044404977</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -754,7 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450.3407103660375</v>
+        <v>450.8231321232588</v>
+      </c>
+      <c r="D25" t="n">
+        <v>299.8251221130072</v>
+      </c>
+      <c r="E25" t="n">
+        <v>149.7919556171983</v>
       </c>
     </row>
     <row r="26">
@@ -769,6 +923,12 @@
       <c r="C26" t="n">
         <v>1521.54026167429</v>
       </c>
+      <c r="D26" t="n">
+        <v>509.3075204765451</v>
+      </c>
+      <c r="E26" t="n">
+        <v>331.0286139772365</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -780,7 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>464.5402836777307</v>
+        <v>465.1162790697672</v>
+      </c>
+      <c r="D27" t="n">
+        <v>311.3255093959242</v>
+      </c>
+      <c r="E27" t="n">
+        <v>154.6547627618975</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>583.8128116609132</v>
+        <v>583.8128116609123</v>
+      </c>
+      <c r="D28" t="n">
+        <v>402.7617951668581</v>
+      </c>
+      <c r="E28" t="n">
+        <v>194.0928270042195</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>611.1167358509665</v>
+        <v>610.3067733117346</v>
+      </c>
+      <c r="D29" t="n">
+        <v>458.843778475245</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1678.647362559482</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>467.270194986073</v>
+        <v>467.2701949860721</v>
+      </c>
+      <c r="D30" t="n">
+        <v>623.2590529247909</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1866.991643454039</v>
       </c>
     </row>
     <row r="31">
@@ -834,6 +1018,12 @@
       <c r="C31" t="n">
         <v>521.3818860877682</v>
       </c>
+      <c r="D31" t="n">
+        <v>652.1008403361348</v>
+      </c>
+      <c r="E31" t="n">
+        <v>391.4098972922502</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -845,7 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>453.9314600183438</v>
+        <v>454.5985158008843</v>
+      </c>
+      <c r="D32" t="n">
+        <v>605.3531226548821</v>
+      </c>
+      <c r="E32" t="n">
+        <v>303.1768531643456</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>480.813889196063</v>
+        <v>481.6985513656973</v>
+      </c>
+      <c r="D33" t="n">
+        <v>241.0704412252571</v>
+      </c>
+      <c r="E33" t="n">
+        <v>720.5573371668697</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>532.5621746674378</v>
+        <v>533.4875650665126</v>
+      </c>
+      <c r="D34" t="n">
+        <v>266.0497397339504</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3190.283400809717</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>530.3494788473326</v>
+        <v>530.3494788473331</v>
+      </c>
+      <c r="D35" t="n">
+        <v>264.8681790312694</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3181.483752299203</v>
       </c>
     </row>
     <row r="36">
@@ -899,6 +1113,12 @@
       <c r="C36" t="n">
         <v>582.8592402275644</v>
       </c>
+      <c r="D36" t="n">
+        <v>292.1636997614241</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1456.41402092127</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -910,7 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>548.8664714177244</v>
+        <v>549.7342444950646</v>
+      </c>
+      <c r="D37" t="n">
+        <v>275.5179520555375</v>
+      </c>
+      <c r="E37" t="n">
+        <v>822.2149907799112</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>492.5081433224759</v>
+        <v>492.5081433224755</v>
+      </c>
+      <c r="D38" t="n">
+        <v>245.8197611292071</v>
+      </c>
+      <c r="E38" t="n">
+        <v>738.3279044516826</v>
       </c>
     </row>
     <row r="39">
@@ -938,6 +1170,12 @@
       <c r="C39" t="n">
         <v>501.5027908973807</v>
       </c>
+      <c r="D39" t="n">
+        <v>250.7513954486903</v>
+      </c>
+      <c r="E39" t="n">
+        <v>752.2541863460715</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -949,7 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>515.6997971602436</v>
+        <v>516.3488843813384</v>
+      </c>
+      <c r="D40" t="n">
+        <v>258.0121703853956</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3088.68154158215</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>379.9083475604275</v>
+        <v>380.6271902237395</v>
+      </c>
+      <c r="D41" t="n">
+        <v>183.6643004762332</v>
+      </c>
+      <c r="E41" t="n">
+        <v>571.1204960014375</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>460.9295487956574</v>
+        <v>461.8342191563952</v>
+      </c>
+      <c r="D42" t="n">
+        <v>231.1432771683817</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2524.482641637454</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>458.2549676997301</v>
+        <v>458.9091503802438</v>
+      </c>
+      <c r="D43" t="n">
+        <v>229.9452122005077</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2516.313680595306</v>
       </c>
     </row>
     <row r="44">
@@ -1003,6 +1265,12 @@
       <c r="C44" t="n">
         <v>483.5367257655998</v>
       </c>
+      <c r="D44" t="n">
+        <v>243.1498963849872</v>
+      </c>
+      <c r="E44" t="n">
+        <v>724.8445774810034</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1014,7 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>485.5491329479764</v>
+        <v>486.2393236131484</v>
+      </c>
+      <c r="D45" t="n">
+        <v>243.9824001380384</v>
+      </c>
+      <c r="E45" t="n">
+        <v>727.8060564230868</v>
       </c>
     </row>
     <row r="46">
@@ -1029,6 +1303,12 @@
       <c r="C46" t="n">
         <v>491.3085004775548</v>
       </c>
+      <c r="D46" t="n">
+        <v>246.0362941738304</v>
+      </c>
+      <c r="E46" t="n">
+        <v>739.6370582617001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1040,7 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>192.6301423279388</v>
+        <v>194.1899005654122</v>
+      </c>
+      <c r="D47" t="n">
+        <v>373.5620978748293</v>
+      </c>
+      <c r="E47" t="n">
+        <v>573.2111522713985</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>273.4555031274003</v>
+        <v>274.3333699111163</v>
+      </c>
+      <c r="D48" t="n">
+        <v>548.2278064303737</v>
+      </c>
+      <c r="E48" t="n">
+        <v>823.0001097333479</v>
       </c>
     </row>
     <row r="49">
@@ -1068,6 +1360,12 @@
       <c r="C49" t="n">
         <v>544.9951409135083</v>
       </c>
+      <c r="D49" t="n">
+        <v>272.8862973760929</v>
+      </c>
+      <c r="E49" t="n">
+        <v>817.8814382896012</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1079,7 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>601.0979808318602</v>
+        <v>601.8423746161716</v>
+      </c>
+      <c r="D50" t="n">
+        <v>301.107285754164</v>
+      </c>
+      <c r="E50" t="n">
+        <v>906.2994323997391</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>551.0264802142215</v>
+        <v>551.0264802142219</v>
+      </c>
+      <c r="D51" t="n">
+        <v>276.7033620946145</v>
+      </c>
+      <c r="E51" t="n">
+        <v>827.7298423088369</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>523.9227622943022</v>
+        <v>524.6837249120135</v>
+      </c>
+      <c r="D52" t="n">
+        <v>174.6409207647675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>350.4232854561023</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>437.9749545113991</v>
+        <v>438.8312105319492</v>
+      </c>
+      <c r="D53" t="n">
+        <v>293.2676870384248</v>
+      </c>
+      <c r="E53" t="n">
+        <v>146.8479075243495</v>
       </c>
     </row>
     <row r="54">
@@ -1133,6 +1455,12 @@
       <c r="C54" t="n">
         <v>392.8244074898521</v>
       </c>
+      <c r="D54" t="n">
+        <v>197.4597354982316</v>
+      </c>
+      <c r="E54" t="n">
+        <v>587.1415477281653</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1144,7 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>387.5400109298148</v>
+        <v>388.1645717854635</v>
+      </c>
+      <c r="D55" t="n">
+        <v>194.5507065344682</v>
+      </c>
+      <c r="E55" t="n">
+        <v>582.4029978921071</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>202.6038202033637</v>
+        <v>203.3640596787991</v>
+      </c>
+      <c r="D56" t="n">
+        <v>406.3479996198803</v>
+      </c>
+      <c r="E56" t="n">
+        <v>608.5717000855266</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>458.5987261146493</v>
+        <v>458.5987261146497</v>
+      </c>
+      <c r="D57" t="n">
+        <v>229.2993630573251</v>
+      </c>
+      <c r="E57" t="n">
+        <v>687.8980891719748</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>498.9342153619996</v>
+        <v>499.5222344726199</v>
+      </c>
+      <c r="D58" t="n">
+        <v>251.3781697905179</v>
+      </c>
+      <c r="E58" t="n">
+        <v>754.1345093715545</v>
       </c>
     </row>
   </sheetData>
